--- a/wz/expdata/2006.xlsx
+++ b/wz/expdata/2006.xlsx
@@ -80,10 +80,10 @@
     <t>D0</t>
   </si>
   <si>
-    <t>tar</t>
-  </si>
-  <si>
     <t>ppb</t>
+  </si>
+  <si>
+    <t>target</t>
   </si>
 </sst>
 </file>
@@ -407,7 +407,7 @@
   <dimension ref="A1:O11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.375" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -420,7 +420,7 @@
         <v>16</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -467,7 +467,7 @@
         <v>17</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C2" s="1">
         <v>1960</v>
@@ -517,7 +517,7 @@
         <v>17</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C3" s="1">
         <v>1960</v>
@@ -567,7 +567,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C4" s="1">
         <v>1960</v>
@@ -617,7 +617,7 @@
         <v>17</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C5" s="1">
         <v>1960</v>
@@ -667,7 +667,7 @@
         <v>17</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C6" s="1">
         <v>1960</v>
@@ -717,7 +717,7 @@
         <v>17</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C7" s="1">
         <v>1960</v>
@@ -767,7 +767,7 @@
         <v>17</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C8" s="1">
         <v>1960</v>
@@ -817,7 +817,7 @@
         <v>17</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C9" s="1">
         <v>1960</v>
@@ -867,7 +867,7 @@
         <v>17</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C10" s="1">
         <v>1960</v>
@@ -917,7 +917,7 @@
         <v>17</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C11" s="1">
         <v>1960</v>

--- a/wz/expdata/2006.xlsx
+++ b/wz/expdata/2006.xlsx
@@ -77,26 +77,60 @@
     <t>col</t>
   </si>
   <si>
-    <t>D0</t>
-  </si>
-  <si>
     <t>ppb</t>
   </si>
   <si>
     <t>target</t>
+  </si>
+  <si>
+    <r>
+      <t>D0(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>µ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>)</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -407,7 +441,7 @@
   <dimension ref="A1:O11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.375" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -420,7 +454,7 @@
         <v>16</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -464,10 +498,10 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="C2" s="1">
         <v>1960</v>
@@ -514,10 +548,10 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="C3" s="1">
         <v>1960</v>
@@ -564,10 +598,10 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="C4" s="1">
         <v>1960</v>
@@ -614,10 +648,10 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="C5" s="1">
         <v>1960</v>
@@ -664,10 +698,10 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="C6" s="1">
         <v>1960</v>
@@ -714,10 +748,10 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="C7" s="1">
         <v>1960</v>
@@ -764,10 +798,10 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="C8" s="1">
         <v>1960</v>
@@ -814,10 +848,10 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="C9" s="1">
         <v>1960</v>
@@ -864,10 +898,10 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="C10" s="1">
         <v>1960</v>
@@ -914,10 +948,10 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="C11" s="1">
         <v>1960</v>
@@ -964,6 +998,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/wz/expdata/2006.xlsx
+++ b/wz/expdata/2006.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Home\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Home\Desktop\High x\Datasheets\wzrv\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13590" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="20">
   <si>
     <t>cms</t>
   </si>
@@ -111,14 +111,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -438,18 +431,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O11"/>
+  <dimension ref="A1:P11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.375" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="15" width="10.875" style="1" customWidth="1"/>
+    <col min="3" max="16" width="10.875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -466,37 +459,40 @@
         <v>2</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>19</v>
       </c>
@@ -513,40 +509,43 @@
         <v>0.2</v>
       </c>
       <c r="F2" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="G2" s="1">
         <v>25</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="1">
+      <c r="I2" s="1">
         <v>2.13</v>
       </c>
-      <c r="I2" s="1">
+      <c r="J2" s="1">
         <v>0.17</v>
       </c>
-      <c r="J2" s="1">
+      <c r="K2" s="1">
         <v>0.11</v>
       </c>
-      <c r="K2" s="1">
-        <f t="shared" ref="K2:K11" si="0">H2/100</f>
+      <c r="L2" s="1">
+        <f t="shared" ref="L2:L11" si="0">I2/100</f>
         <v>2.1299999999999999E-2</v>
       </c>
-      <c r="L2" s="1">
-        <f t="shared" ref="L2:L11" si="1">I2/100</f>
+      <c r="M2" s="1">
+        <f t="shared" ref="M2:M11" si="1">J2/100</f>
         <v>1.7000000000000001E-3</v>
       </c>
-      <c r="M2" s="1">
-        <f t="shared" ref="M2:M11" si="2">J2/100</f>
+      <c r="N2" s="1">
+        <f t="shared" ref="N2:N11" si="2">K2/100</f>
         <v>1.1000000000000001E-3</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>19</v>
       </c>
@@ -563,40 +562,43 @@
         <v>0.4</v>
       </c>
       <c r="F3" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="G3" s="1">
         <v>25</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="1">
+      <c r="I3" s="1">
         <v>5.46</v>
       </c>
-      <c r="I3" s="1">
+      <c r="J3" s="1">
         <v>0.18</v>
       </c>
-      <c r="J3" s="1">
+      <c r="K3" s="1">
         <v>0.13</v>
       </c>
-      <c r="K3" s="1">
+      <c r="L3" s="1">
         <f t="shared" si="0"/>
         <v>5.4600000000000003E-2</v>
       </c>
-      <c r="L3" s="1">
+      <c r="M3" s="1">
         <f t="shared" si="1"/>
         <v>1.8E-3</v>
       </c>
-      <c r="M3" s="1">
+      <c r="N3" s="1">
         <f t="shared" si="2"/>
         <v>1.2999999999999999E-3</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="O3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="O3" s="1" t="s">
+      <c r="P3" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>19</v>
       </c>
@@ -613,40 +615,43 @@
         <v>0.6</v>
       </c>
       <c r="F4" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G4" s="1">
         <v>25</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="1">
+      <c r="I4" s="1">
         <v>9.11</v>
       </c>
-      <c r="I4" s="1">
+      <c r="J4" s="1">
         <v>0.18</v>
       </c>
-      <c r="J4" s="1">
+      <c r="K4" s="1">
         <v>0.16</v>
       </c>
-      <c r="K4" s="1">
+      <c r="L4" s="1">
         <f t="shared" si="0"/>
         <v>9.11E-2</v>
       </c>
-      <c r="L4" s="1">
+      <c r="M4" s="1">
         <f t="shared" si="1"/>
         <v>1.8E-3</v>
       </c>
-      <c r="M4" s="1">
+      <c r="N4" s="1">
         <f t="shared" si="2"/>
         <v>1.6000000000000001E-3</v>
       </c>
-      <c r="N4" s="1" t="s">
+      <c r="O4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="O4" s="1" t="s">
+      <c r="P4" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>19</v>
       </c>
@@ -663,40 +668,43 @@
         <v>0.8</v>
       </c>
       <c r="F5" s="1">
+        <v>0.71</v>
+      </c>
+      <c r="G5" s="1">
         <v>25</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="H5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="1">
+      <c r="I5" s="1">
         <v>12.41</v>
       </c>
-      <c r="I5" s="1">
+      <c r="J5" s="1">
         <v>0.18</v>
       </c>
-      <c r="J5" s="1">
+      <c r="K5" s="1">
         <v>0.19</v>
       </c>
-      <c r="K5" s="1">
+      <c r="L5" s="1">
         <f t="shared" si="0"/>
         <v>0.1241</v>
       </c>
-      <c r="L5" s="1">
+      <c r="M5" s="1">
         <f t="shared" si="1"/>
         <v>1.8E-3</v>
       </c>
-      <c r="M5" s="1">
+      <c r="N5" s="1">
         <f t="shared" si="2"/>
         <v>1.9E-3</v>
       </c>
-      <c r="N5" s="1" t="s">
+      <c r="O5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="O5" s="1" t="s">
+      <c r="P5" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>19</v>
       </c>
@@ -713,40 +721,43 @@
         <v>1</v>
       </c>
       <c r="F6" s="1">
+        <v>0.89</v>
+      </c>
+      <c r="G6" s="1">
         <v>25</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="H6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H6" s="1">
+      <c r="I6" s="1">
         <v>14.15</v>
       </c>
-      <c r="I6" s="1">
+      <c r="J6" s="1">
         <v>0.19</v>
       </c>
-      <c r="J6" s="1">
+      <c r="K6" s="1">
         <v>0.17</v>
       </c>
-      <c r="K6" s="1">
+      <c r="L6" s="1">
         <f t="shared" si="0"/>
         <v>0.14150000000000001</v>
       </c>
-      <c r="L6" s="1">
+      <c r="M6" s="1">
         <f t="shared" si="1"/>
         <v>1.9E-3</v>
       </c>
-      <c r="M6" s="1">
+      <c r="N6" s="1">
         <f t="shared" si="2"/>
         <v>1.7000000000000001E-3</v>
       </c>
-      <c r="N6" s="1" t="s">
+      <c r="O6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="O6" s="1" t="s">
+      <c r="P6" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>19</v>
       </c>
@@ -763,40 +774,43 @@
         <v>1.2</v>
       </c>
       <c r="F7" s="1">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="G7" s="1">
         <v>25</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="H7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H7" s="1">
+      <c r="I7" s="1">
         <v>16.13</v>
       </c>
-      <c r="I7" s="1">
+      <c r="J7" s="1">
         <v>0.16</v>
       </c>
-      <c r="J7" s="1">
+      <c r="K7" s="1">
         <v>0.27</v>
       </c>
-      <c r="K7" s="1">
+      <c r="L7" s="1">
         <f t="shared" si="0"/>
         <v>0.1613</v>
       </c>
-      <c r="L7" s="1">
+      <c r="M7" s="1">
         <f t="shared" si="1"/>
         <v>1.6000000000000001E-3</v>
       </c>
-      <c r="M7" s="1">
+      <c r="N7" s="1">
         <f t="shared" si="2"/>
         <v>2.7000000000000001E-3</v>
       </c>
-      <c r="N7" s="1" t="s">
+      <c r="O7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="O7" s="1" t="s">
+      <c r="P7" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>19</v>
       </c>
@@ -813,40 +827,43 @@
         <v>1.4</v>
       </c>
       <c r="F8" s="1">
+        <v>1.3</v>
+      </c>
+      <c r="G8" s="1">
         <v>25</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="H8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H8" s="1">
+      <c r="I8" s="1">
         <v>16.62</v>
       </c>
-      <c r="I8" s="1">
+      <c r="J8" s="1">
         <v>0.14000000000000001</v>
       </c>
-      <c r="J8" s="1">
+      <c r="K8" s="1">
         <v>0.21</v>
       </c>
-      <c r="K8" s="1">
+      <c r="L8" s="1">
         <f t="shared" si="0"/>
         <v>0.16620000000000001</v>
       </c>
-      <c r="L8" s="1">
+      <c r="M8" s="1">
         <f t="shared" si="1"/>
         <v>1.4000000000000002E-3</v>
       </c>
-      <c r="M8" s="1">
+      <c r="N8" s="1">
         <f t="shared" si="2"/>
         <v>2.0999999999999999E-3</v>
       </c>
-      <c r="N8" s="1" t="s">
+      <c r="O8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="O8" s="1" t="s">
+      <c r="P8" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>19</v>
       </c>
@@ -863,40 +880,43 @@
         <v>1.6</v>
       </c>
       <c r="F9" s="1">
+        <v>1.49</v>
+      </c>
+      <c r="G9" s="1">
         <v>25</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="H9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H9" s="1">
+      <c r="I9" s="1">
         <v>15.47</v>
       </c>
-      <c r="I9" s="1">
+      <c r="J9" s="1">
         <v>0.16</v>
       </c>
-      <c r="J9" s="1">
+      <c r="K9" s="1">
         <v>0.21</v>
       </c>
-      <c r="K9" s="1">
+      <c r="L9" s="1">
         <f t="shared" si="0"/>
         <v>0.1547</v>
       </c>
-      <c r="L9" s="1">
+      <c r="M9" s="1">
         <f t="shared" si="1"/>
         <v>1.6000000000000001E-3</v>
       </c>
-      <c r="M9" s="1">
+      <c r="N9" s="1">
         <f t="shared" si="2"/>
         <v>2.0999999999999999E-3</v>
       </c>
-      <c r="N9" s="1" t="s">
+      <c r="O9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="O9" s="1" t="s">
+      <c r="P9" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>19</v>
       </c>
@@ -913,40 +933,43 @@
         <v>1.8</v>
       </c>
       <c r="F10" s="1">
+        <v>1.66</v>
+      </c>
+      <c r="G10" s="1">
         <v>25</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="H10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H10" s="1">
+      <c r="I10" s="1">
         <v>11.06</v>
       </c>
-      <c r="I10" s="1">
+      <c r="J10" s="1">
         <v>0.7</v>
       </c>
-      <c r="J10" s="1">
+      <c r="K10" s="1">
         <v>0.33</v>
       </c>
-      <c r="K10" s="1">
+      <c r="L10" s="1">
         <f t="shared" si="0"/>
         <v>0.1106</v>
       </c>
-      <c r="L10" s="1">
+      <c r="M10" s="1">
         <f t="shared" si="1"/>
         <v>6.9999999999999993E-3</v>
       </c>
-      <c r="M10" s="1">
+      <c r="N10" s="1">
         <f t="shared" si="2"/>
         <v>3.3E-3</v>
       </c>
-      <c r="N10" s="1" t="s">
+      <c r="O10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="O10" s="1" t="s">
+      <c r="P10" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>19</v>
       </c>
@@ -963,36 +986,39 @@
         <v>2</v>
       </c>
       <c r="F11" s="1">
+        <v>1.88</v>
+      </c>
+      <c r="G11" s="1">
         <v>25</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="H11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H11" s="1">
+      <c r="I11" s="1">
         <v>7.64</v>
       </c>
-      <c r="I11" s="1">
+      <c r="J11" s="1">
         <v>1.07</v>
       </c>
-      <c r="J11" s="1">
+      <c r="K11" s="1">
         <v>0.42</v>
       </c>
-      <c r="K11" s="1">
+      <c r="L11" s="1">
         <f t="shared" si="0"/>
         <v>7.6399999999999996E-2</v>
       </c>
-      <c r="L11" s="1">
+      <c r="M11" s="1">
         <f t="shared" si="1"/>
         <v>1.0700000000000001E-2</v>
       </c>
-      <c r="M11" s="1">
+      <c r="N11" s="1">
         <f t="shared" si="2"/>
         <v>4.1999999999999997E-3</v>
       </c>
-      <c r="N11" s="1" t="s">
+      <c r="O11" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="O11" s="1" t="s">
+      <c r="P11" s="1" t="s">
         <v>15</v>
       </c>
     </row>
